--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{29D66757-F905-40E8-83FA-DB2FB4C7D936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{755E1275-077A-43E1-AFA3-DC2D8932CA0D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{29D66757-F905-40E8-83FA-DB2FB4C7D936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322FF19C-8828-4136-8098-BA9C6B772BF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EC6DB724-433F-4BB9-927B-70EBABB7ACFF}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{EC6DB724-433F-4BB9-927B-70EBABB7ACFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>12471.90 mln GBP</t>
   </si>
   <si>
-    <t>+44 08000664429</t>
+    <t>50 St Mary Axe, KT17 1BS, London, United Kingdom</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{29D66757-F905-40E8-83FA-DB2FB4C7D936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322FF19C-8828-4136-8098-BA9C6B772BF1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{7F34711A-CF99-4389-B3D1-991A80C15F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94514E2-3AAC-4D9D-B9CF-903D880ECFCE}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{EC6DB724-433F-4BB9-927B-70EBABB7ACFF}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11835" xr2:uid="{079E6AB3-B708-4CFC-8DF6-7EEA61A08739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,1344 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="448">
+  <si>
+    <t>Transferwise Ltd</t>
+  </si>
+  <si>
+    <t>CB Payments Ltd</t>
+  </si>
+  <si>
+    <t>Curve OS</t>
+  </si>
+  <si>
+    <t>DynaPay Ltd</t>
+  </si>
+  <si>
+    <t>MONESE LTD</t>
+  </si>
+  <si>
+    <t>myPOS Europe Ltd</t>
+  </si>
+  <si>
+    <t>Soldo Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>Tor Currency Exchange Limited</t>
+  </si>
+  <si>
+    <t>UKForex Ltd</t>
+  </si>
+  <si>
+    <t>WorldRemit Ltd</t>
+  </si>
+  <si>
+    <t>3S Money Club Limited</t>
+  </si>
+  <si>
+    <t>Allied Wallet Ltd</t>
+  </si>
+  <si>
+    <t>APS Financial Ltd</t>
+  </si>
+  <si>
+    <t>Bilderlings Pay Ltd</t>
+  </si>
+  <si>
+    <t>CashDash UK Ltd</t>
+  </si>
+  <si>
+    <t>CashFlows Europe Ltd</t>
+  </si>
+  <si>
+    <t>Cornercard UK Ltd</t>
+  </si>
+  <si>
+    <t>Currencies Direct Limited</t>
+  </si>
+  <si>
+    <t>Decta Ltd</t>
+  </si>
+  <si>
+    <t>eMerchantPay Ltd</t>
+  </si>
+  <si>
+    <t>Fondy Ltd</t>
+  </si>
+  <si>
+    <t>Foreign Currency Direct Plc</t>
+  </si>
+  <si>
+    <t>Foreign Currency Exchange Ltd</t>
+  </si>
+  <si>
+    <t>Mercury Foreign Exchange Limited</t>
+  </si>
+  <si>
+    <t>Paysafe Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>PaySend Plc</t>
+  </si>
+  <si>
+    <t>POCKIT LIMITED</t>
+  </si>
+  <si>
+    <t>Prepaid Services Company ltd</t>
+  </si>
+  <si>
+    <t>Skrill Ltd</t>
+  </si>
+  <si>
+    <t>STRIPE PAYMENTS UK LTD</t>
+  </si>
+  <si>
+    <t>Sumup Payments Ltd</t>
+  </si>
+  <si>
+    <t>The ai Corporation Ltd</t>
+  </si>
+  <si>
+    <t>Wirecard Card Solutions Ltd</t>
+  </si>
+  <si>
+    <t>World First UK Ltd</t>
+  </si>
+  <si>
+    <t>A Plus Payment Solutions Ltd</t>
+  </si>
+  <si>
+    <t>Aave Limited</t>
+  </si>
+  <si>
+    <t>Ace Union Ltd</t>
+  </si>
+  <si>
+    <t>AF Payments Ltd</t>
+  </si>
+  <si>
+    <t>Airbnb Payments UK Ltd</t>
+  </si>
+  <si>
+    <t>Airwallex UK Ltd</t>
+  </si>
+  <si>
+    <t>Alipay (UK) Limited</t>
+  </si>
+  <si>
+    <t>Allpay Ltd</t>
+  </si>
+  <si>
+    <t>Allstar Business Solutions Ltd</t>
+  </si>
+  <si>
+    <t>Alpha FX Ltd</t>
+  </si>
+  <si>
+    <t>Altalix Ltd</t>
+  </si>
+  <si>
+    <t>ALTPAY Ltd</t>
+  </si>
+  <si>
+    <t>Amaiz Ltd</t>
+  </si>
+  <si>
+    <t>American Express Advanced Services Europe Limited</t>
+  </si>
+  <si>
+    <t>APPFLEET LTD</t>
+  </si>
+  <si>
+    <t>Argentex LLP</t>
+  </si>
+  <si>
+    <t>Authoripay Emoney Ltd</t>
+  </si>
+  <si>
+    <t>Avila House Limited</t>
+  </si>
+  <si>
+    <t>AZURE PSYSTEMS LIMITED</t>
+  </si>
+  <si>
+    <t>B2B PAYMENT SOLUTIONS LTD</t>
+  </si>
+  <si>
+    <t>Baker Commerce (UK) Limited</t>
+  </si>
+  <si>
+    <t>Bancom Europe Ltd</t>
+  </si>
+  <si>
+    <t>BASTION FINGROUP LIMITED</t>
+  </si>
+  <si>
+    <t>Bedford Pay LTD</t>
+  </si>
+  <si>
+    <t>Belnax Limited</t>
+  </si>
+  <si>
+    <t>Billon Financial Ltd</t>
+  </si>
+  <si>
+    <t>Bla Bla Connect Ltd</t>
+  </si>
+  <si>
+    <t>Blackhawk Network (UK) Ltd</t>
+  </si>
+  <si>
+    <t>Boku Account Services UK Ltd</t>
+  </si>
+  <si>
+    <t>Britannia Global Payments Limited</t>
+  </si>
+  <si>
+    <t>Cambridge Mercantile Corp UK Ltd</t>
+  </si>
+  <si>
+    <t>Caxton FX Ltd</t>
+  </si>
+  <si>
+    <t>Centtrip Ltd</t>
+  </si>
+  <si>
+    <t>CFS-ZIPP Ltd</t>
+  </si>
+  <si>
+    <t>Checkout Ltd</t>
+  </si>
+  <si>
+    <t>Circle UK Trading Ltd</t>
+  </si>
+  <si>
+    <t>Clear Junction Ltd</t>
+  </si>
+  <si>
+    <t>Cospay Limited</t>
+  </si>
+  <si>
+    <t>Currenxie (UK) Ltd</t>
+  </si>
+  <si>
+    <t>Decent Finance Limited</t>
+  </si>
+  <si>
+    <t>Digital Capital Ltd</t>
+  </si>
+  <si>
+    <t>DiPocket Ltd</t>
+  </si>
+  <si>
+    <t>Disberse Limited</t>
+  </si>
+  <si>
+    <t>DTL PAY LTD</t>
+  </si>
+  <si>
+    <t>Dzing Finance Ltd</t>
+  </si>
+  <si>
+    <t>Ebanx ltd</t>
+  </si>
+  <si>
+    <t>Ebury Partners UK Ltd</t>
+  </si>
+  <si>
+    <t>eCOMM Merchant Solutions Ltd</t>
+  </si>
+  <si>
+    <t>Ecommerce Technologies LTD</t>
+  </si>
+  <si>
+    <t>Electronic Payment Solutions Ltd</t>
+  </si>
+  <si>
+    <t>Emerald Financial Group (UK) Ltd</t>
+  </si>
+  <si>
+    <t>Entropay Limited</t>
+  </si>
+  <si>
+    <t>Enumis Limited</t>
+  </si>
+  <si>
+    <t>ETA Money Limited</t>
+  </si>
+  <si>
+    <t>eToro Money UK Ltd</t>
+  </si>
+  <si>
+    <t>Euro Exchange Securities UK Ltd</t>
+  </si>
+  <si>
+    <t>Euronet 360 Finance Ltd</t>
+  </si>
+  <si>
+    <t>Europanpay Ltd</t>
+  </si>
+  <si>
+    <t>FAIR PAYMENTS LIMITED</t>
+  </si>
+  <si>
+    <t>Fasterpay Ltd</t>
+  </si>
+  <si>
+    <t>FIDO FINANCE LIMITED</t>
+  </si>
+  <si>
+    <t>Financial House Limited</t>
+  </si>
+  <si>
+    <t>Finblocks Ltd</t>
+  </si>
+  <si>
+    <t>Fincofex Limited</t>
+  </si>
+  <si>
+    <t>FinPayTech Global Solution Ltd</t>
+  </si>
+  <si>
+    <t>Fintech Valley Ltd</t>
+  </si>
+  <si>
+    <t>FIRE FINANCIAL SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>First Rate Exchange Services Ltd</t>
+  </si>
+  <si>
+    <t>Frontier Global Consultants Ltd</t>
+  </si>
+  <si>
+    <t>FxPro Invest Ltd</t>
+  </si>
+  <si>
+    <t>GBXP LIMITED</t>
+  </si>
+  <si>
+    <t>Gemini Europe Ltd</t>
+  </si>
+  <si>
+    <t>Givta Limited</t>
+  </si>
+  <si>
+    <t>Glint Pay services Ltd</t>
+  </si>
+  <si>
+    <t>Global Star Finance Ltd</t>
+  </si>
+  <si>
+    <t>Google Payment ltd</t>
+  </si>
+  <si>
+    <t>Guavapay Limited</t>
+  </si>
+  <si>
+    <t>GVS Prepaid Ltd</t>
+  </si>
+  <si>
+    <t>Hargreaves Lansdown Savings Limited</t>
+  </si>
+  <si>
+    <t>HRYZE FINANCIAL SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>Hyperwallet Systems Europe Ltd</t>
+  </si>
+  <si>
+    <t>IFX (UK) Ltd</t>
+  </si>
+  <si>
+    <t>iMillion Ltd</t>
+  </si>
+  <si>
+    <t>ImpulsePay Ltd</t>
+  </si>
+  <si>
+    <t>Interpay UK ltd</t>
+  </si>
+  <si>
+    <t>IPAGOO LLP</t>
+  </si>
+  <si>
+    <t>ISX Financial UK Ltd</t>
+  </si>
+  <si>
+    <t>Kashet Ltd</t>
+  </si>
+  <si>
+    <t>Koine Money Ltd</t>
+  </si>
+  <si>
+    <t>Larstal Limited</t>
+  </si>
+  <si>
+    <t>Little Starts Gift Vouchers Limited</t>
+  </si>
+  <si>
+    <t>LQID Limited</t>
+  </si>
+  <si>
+    <t>Luxon Payments Limited</t>
+  </si>
+  <si>
+    <t>Lycamoney Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>MiFinity UK Limited</t>
+  </si>
+  <si>
+    <t>MIR Limited UK</t>
+  </si>
+  <si>
+    <t>Modulr FS Limited</t>
+  </si>
+  <si>
+    <t>MONAVATE LTD</t>
+  </si>
+  <si>
+    <t>MONELIQ LTD</t>
+  </si>
+  <si>
+    <t>Moneyfold Ltd</t>
+  </si>
+  <si>
+    <t>MoneyNetInt Ltd</t>
+  </si>
+  <si>
+    <t>Monitox Ltd</t>
+  </si>
+  <si>
+    <t>MONTIFY LTD</t>
+  </si>
+  <si>
+    <t>Moorwand Ltd</t>
+  </si>
+  <si>
+    <t>Mortgage FX Limited</t>
+  </si>
+  <si>
+    <t>MSBB Money Ltd</t>
+  </si>
+  <si>
+    <t>Nation Remit Ltd</t>
+  </si>
+  <si>
+    <t>New Wave Capital Limited</t>
+  </si>
+  <si>
+    <t>Nochex Ltd</t>
+  </si>
+  <si>
+    <t>Noveba Limited</t>
+  </si>
+  <si>
+    <t>Nvayo Limited</t>
+  </si>
+  <si>
+    <t>OMEGA BAAP LIMITED</t>
+  </si>
+  <si>
+    <t>OMNIO EMI LIMITED</t>
+  </si>
+  <si>
+    <t>One Finance Britain Ltd</t>
+  </si>
+  <si>
+    <t>One Money Mail Limited</t>
+  </si>
+  <si>
+    <t>One Stop Money Manager Ltd</t>
+  </si>
+  <si>
+    <t>Opay Holding Limited</t>
+  </si>
+  <si>
+    <t>Optal Financial Ltd</t>
+  </si>
+  <si>
+    <t>Optimus Cards UK Limited</t>
+  </si>
+  <si>
+    <t>Ozan Ltd</t>
+  </si>
+  <si>
+    <t>Paybase Ltd</t>
+  </si>
+  <si>
+    <t>Payen Limited</t>
+  </si>
+  <si>
+    <t>PAYMENT CARD SOLUTIONS (UK) LIMITED</t>
+  </si>
+  <si>
+    <t>Paymentsense Limited</t>
+  </si>
+  <si>
+    <t>Paynetworx Group Ltd</t>
+  </si>
+  <si>
+    <t>Payoma Ltd</t>
+  </si>
+  <si>
+    <t>PayrNet Ltd</t>
+  </si>
+  <si>
+    <t>Paysage.io Limited</t>
+  </si>
+  <si>
+    <t>Payver Limited</t>
+  </si>
+  <si>
+    <t>PAYWISER LIMITED</t>
+  </si>
+  <si>
+    <t>Payxpert UK Ltd</t>
+  </si>
+  <si>
+    <t>Ppro Financial Ltd</t>
+  </si>
+  <si>
+    <t>PRACTIKA FINANCE LTD</t>
+  </si>
+  <si>
+    <t>Prepaid Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>Privalgo Limited</t>
+  </si>
+  <si>
+    <t>Privat 3 Money Ltd</t>
+  </si>
+  <si>
+    <t>Project Imagine Ltd</t>
+  </si>
+  <si>
+    <t>Psi-Pay ltd</t>
+  </si>
+  <si>
+    <t>Recary Ltd</t>
+  </si>
+  <si>
+    <t>REMITTANCE360 LTD</t>
+  </si>
+  <si>
+    <t>REXELPAY LTD</t>
+  </si>
+  <si>
+    <t>RightCard Payment Services Ltd</t>
+  </si>
+  <si>
+    <t>SafeNetPay Services Company Limited</t>
+  </si>
+  <si>
+    <t>Satispay Ltd</t>
+  </si>
+  <si>
+    <t>SEACHANGE FINANCIAL SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>Sedel Capital LLP</t>
+  </si>
+  <si>
+    <t>SETTLEGO SOLUTIONS LIMITED</t>
+  </si>
+  <si>
+    <t>Shrap Ltd</t>
+  </si>
+  <si>
+    <t>Silicon Silk Ltd</t>
+  </si>
+  <si>
+    <t>Simplepay London Ltd</t>
+  </si>
+  <si>
+    <t>Squareup Europe Ltd</t>
+  </si>
+  <si>
+    <t>Squidcard Limited</t>
+  </si>
+  <si>
+    <t>Stork Group Ltd</t>
+  </si>
+  <si>
+    <t>Straal Ltd</t>
+  </si>
+  <si>
+    <t>Sunrate Partners UK Limited</t>
+  </si>
+  <si>
+    <t>SYNC.MONEY UK LTD</t>
+  </si>
+  <si>
+    <t>SYSTEM PAY SERVICES LTD</t>
+  </si>
+  <si>
+    <t>TalkRemit Ltd</t>
+  </si>
+  <si>
+    <t>Taptap Send UK Limited</t>
+  </si>
+  <si>
+    <t>The Currency Cloud Ltd</t>
+  </si>
+  <si>
+    <t>The Foremost Currency Group Limited</t>
+  </si>
+  <si>
+    <t>THE MINTED APP LTD</t>
+  </si>
+  <si>
+    <t>Think Money Limited</t>
+  </si>
+  <si>
+    <t>Tide Platform Limited</t>
+  </si>
+  <si>
+    <t>Transact24 Ltd</t>
+  </si>
+  <si>
+    <t>Transactive Systems Ltd</t>
+  </si>
+  <si>
+    <t>Transactworld Ltd</t>
+  </si>
+  <si>
+    <t>Travelex Europe Ltd</t>
+  </si>
+  <si>
+    <t>TrueLayer Limited</t>
+  </si>
+  <si>
+    <t>Tyncofex Ltd</t>
+  </si>
+  <si>
+    <t>UK First Fintech Limited</t>
+  </si>
+  <si>
+    <t>Unimoni Limited</t>
+  </si>
+  <si>
+    <t>Valitor Limited</t>
+  </si>
+  <si>
+    <t>VertoFX Ltd</t>
+  </si>
+  <si>
+    <t>VFX Financial PLC</t>
+  </si>
+  <si>
+    <t>Viola Money (Europe) Ltd</t>
+  </si>
+  <si>
+    <t>Vitesse PSP Ltd</t>
+  </si>
+  <si>
+    <t>VORAPAY LIMITED</t>
+  </si>
+  <si>
+    <t>Webmoney Europe Ltd</t>
+  </si>
+  <si>
+    <t>WECOLLECT (LONDON) LIMITED</t>
+  </si>
+  <si>
+    <t>Wex Europe UK ltd</t>
+  </si>
+  <si>
+    <t>WireBloom LTD</t>
+  </si>
+  <si>
+    <t>Wirepayer Ltd</t>
+  </si>
+  <si>
+    <t>WTUK Ltd</t>
+  </si>
+  <si>
+    <t>xpate ltd</t>
+  </si>
+  <si>
+    <t>YouPass Payments Europe Ltd</t>
+  </si>
+  <si>
+    <t>YoYo Wallet Ltd</t>
+  </si>
+  <si>
+    <t>Ziglu Limited</t>
+  </si>
+  <si>
+    <t>Azimo Ltd</t>
+  </si>
+  <si>
+    <t>Contis Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>Epayments Systems Ltd</t>
+  </si>
+  <si>
+    <t>Prepay Technologies ltd</t>
+  </si>
+  <si>
+    <t>Revolut Ltd</t>
+  </si>
+  <si>
+    <t>Wirex Ltd</t>
+  </si>
+  <si>
+    <t>Syncom (UK) Limited</t>
+  </si>
+  <si>
+    <t>TEAPAYMENT LTD</t>
+  </si>
+  <si>
+    <t>international money transfers</t>
+  </si>
+  <si>
+    <t>providing cryptocurrency platform</t>
+  </si>
+  <si>
+    <t>providing payment cards</t>
+  </si>
+  <si>
+    <t>banking services, payments processing solutions</t>
+  </si>
+  <si>
+    <t>digital banking and payment services</t>
+  </si>
+  <si>
+    <t>providing payment solutions to merchants</t>
+  </si>
+  <si>
+    <t>expense management platform</t>
+  </si>
+  <si>
+    <t>foreign exchange and international payments</t>
+  </si>
+  <si>
+    <t>international trade</t>
+  </si>
+  <si>
+    <t>turnkey payment gateway solutions</t>
+  </si>
+  <si>
+    <t>seamless banking services solution</t>
+  </si>
+  <si>
+    <t>offering banking services</t>
+  </si>
+  <si>
+    <t>payment operating system</t>
+  </si>
+  <si>
+    <t>aiming to maximize payment acceptance of its customers</t>
+  </si>
+  <si>
+    <t>providing UK prepaid cards</t>
+  </si>
+  <si>
+    <t>currency and money transfers</t>
+  </si>
+  <si>
+    <t>providing a flexible payment processing platform</t>
+  </si>
+  <si>
+    <t>payment optimization solutions for businesses</t>
+  </si>
+  <si>
+    <t>providing cross-platform payment system</t>
+  </si>
+  <si>
+    <t>foreign exchange and international transfers</t>
+  </si>
+  <si>
+    <t>FX services for businesses and personal customers</t>
+  </si>
+  <si>
+    <t>digital payment solutions for businesses</t>
+  </si>
+  <si>
+    <t>payment cards and current accounts</t>
+  </si>
+  <si>
+    <t>mobile application for money transfers</t>
+  </si>
+  <si>
+    <t>developing global payment solutions</t>
+  </si>
+  <si>
+    <t>software platform for running Internet business</t>
+  </si>
+  <si>
+    <t>payment processing platform</t>
+  </si>
+  <si>
+    <t>payment processing for merchants</t>
+  </si>
+  <si>
+    <t>prepaid card products and services</t>
+  </si>
+  <si>
+    <t>international money transfers for businesses and individuals</t>
+  </si>
+  <si>
+    <t>online payment solutions</t>
+  </si>
+  <si>
+    <t>Trustpilot Rating</t>
+  </si>
+  <si>
+    <t>online payments solutions</t>
+  </si>
+  <si>
+    <t>providing services for electronic payments</t>
+  </si>
+  <si>
+    <t>payment processing on behalf of Airbnb</t>
+  </si>
+  <si>
+    <t>high speed, low cost global payments</t>
+  </si>
+  <si>
+    <t>international payment platform</t>
+  </si>
+  <si>
+    <t>payment processing solutions</t>
+  </si>
+  <si>
+    <t>business expense solutions</t>
+  </si>
+  <si>
+    <t>international foreign exchange</t>
+  </si>
+  <si>
+    <t>payment gateway for crypto</t>
+  </si>
+  <si>
+    <t>alternative banking solutions</t>
+  </si>
+  <si>
+    <t>providing business accounts</t>
+  </si>
+  <si>
+    <t>e-money solutions for American Express</t>
+  </si>
+  <si>
+    <t>payment solutions for businesses</t>
+  </si>
+  <si>
+    <t>multi-currency e-wallets</t>
+  </si>
+  <si>
+    <t>e-commerce services</t>
+  </si>
+  <si>
+    <t>global payments solutions</t>
+  </si>
+  <si>
+    <t>global banking platform</t>
+  </si>
+  <si>
+    <t>vital financial components for organizations</t>
+  </si>
+  <si>
+    <t>providing payment accounts and cards</t>
+  </si>
+  <si>
+    <t>providing simple payment system</t>
+  </si>
+  <si>
+    <t>providing payment platform for businesses</t>
+  </si>
+  <si>
+    <t>blockchain solutions for payment processing</t>
+  </si>
+  <si>
+    <t>platform for low cost international calls</t>
+  </si>
+  <si>
+    <t>providing gift cards</t>
+  </si>
+  <si>
+    <t>connecting mobile operators and online merchants</t>
+  </si>
+  <si>
+    <t>domestic and cross-border payments</t>
+  </si>
+  <si>
+    <t>providing foreign exchange and global payments services to businesses</t>
+  </si>
+  <si>
+    <t>international payments</t>
+  </si>
+  <si>
+    <t>providing e-payment solutions</t>
+  </si>
+  <si>
+    <t>online payment processing platform</t>
+  </si>
+  <si>
+    <t>global crypto finance</t>
+  </si>
+  <si>
+    <t>providing payment infrastructure services</t>
+  </si>
+  <si>
+    <t>providing payment services to merchants</t>
+  </si>
+  <si>
+    <t>providing global business accounts</t>
+  </si>
+  <si>
+    <t>providing mobile wallets</t>
+  </si>
+  <si>
+    <t>providing payment solutions</t>
+  </si>
+  <si>
+    <t>providing cashless payment solutions in one mobile app</t>
+  </si>
+  <si>
+    <t>international transfers for donors and aid organizations</t>
+  </si>
+  <si>
+    <t>providing payment cards and IBAN accounts</t>
+  </si>
+  <si>
+    <t>payment services for Latin America</t>
+  </si>
+  <si>
+    <t>providing international payments for business</t>
+  </si>
+  <si>
+    <t>providing payment and card processing services</t>
+  </si>
+  <si>
+    <t>providing IBAN accounts</t>
+  </si>
+  <si>
+    <t>fast online payments, providing payment cards</t>
+  </si>
+  <si>
+    <t>providing e-money and e-payment solutions</t>
+  </si>
+  <si>
+    <t>debit cards</t>
+  </si>
+  <si>
+    <t>international money transfers and currency exchange</t>
+  </si>
+  <si>
+    <t>prepaid payment processing for retailers</t>
+  </si>
+  <si>
+    <t>payment cards and international transfers</t>
+  </si>
+  <si>
+    <t>banking and payment infrastructure</t>
+  </si>
+  <si>
+    <t>providing payment platform</t>
+  </si>
+  <si>
+    <t>turnkey payment solutions</t>
+  </si>
+  <si>
+    <t>integrated payment solutions for businesses</t>
+  </si>
+  <si>
+    <t>FX services for businesses</t>
+  </si>
+  <si>
+    <t>cross-border payments</t>
+  </si>
+  <si>
+    <t>crypto trading platform</t>
+  </si>
+  <si>
+    <t>online gifting social network</t>
+  </si>
+  <si>
+    <t>providing buy/sell gold operations using Glint MasterCard cards</t>
+  </si>
+  <si>
+    <t>processing payment related to Google</t>
+  </si>
+  <si>
+    <t>issuing gift cards for UK and Ireland customers</t>
+  </si>
+  <si>
+    <t>alternative savings accounts</t>
+  </si>
+  <si>
+    <t>payment and expense management solutions</t>
+  </si>
+  <si>
+    <t>providing foreign exchange and financial technology services</t>
+  </si>
+  <si>
+    <t>mobile payment processing solutions</t>
+  </si>
+  <si>
+    <t>B2B-payments technology solution</t>
+  </si>
+  <si>
+    <t>providing cash management solutions</t>
+  </si>
+  <si>
+    <t>payment, identity &amp; e-money solutions</t>
+  </si>
+  <si>
+    <t>custody and settlement of digital assets</t>
+  </si>
+  <si>
+    <t>providing payment platform for SMEs</t>
+  </si>
+  <si>
+    <t>issuing prepaid MasterCard cards</t>
+  </si>
+  <si>
+    <t>offering e-wallets and payment cards</t>
+  </si>
+  <si>
+    <t>software development for FinTech clients</t>
+  </si>
+  <si>
+    <t>providing payment accounts for businesses</t>
+  </si>
+  <si>
+    <t>providing frameworks for FinTechs</t>
+  </si>
+  <si>
+    <t>payment solutions for merchants</t>
+  </si>
+  <si>
+    <t>regulated fiat-backed stablecoins</t>
+  </si>
+  <si>
+    <t>providing international payment services</t>
+  </si>
+  <si>
+    <t>providing payment accounts</t>
+  </si>
+  <si>
+    <t>end-to-end payment solutions</t>
+  </si>
+  <si>
+    <t>global currency transfers</t>
+  </si>
+  <si>
+    <t>FX and payment services for businesses</t>
+  </si>
+  <si>
+    <t>remittance services</t>
+  </si>
+  <si>
+    <t>credit cards for SMEs and self-employed</t>
+  </si>
+  <si>
+    <t>providing payment cards and e-wallets</t>
+  </si>
+  <si>
+    <t>bespoke e-money products</t>
+  </si>
+  <si>
+    <t>beneficial banking alternative</t>
+  </si>
+  <si>
+    <t>proprietary payment platform for businesses</t>
+  </si>
+  <si>
+    <t>providing e-wallets and payment cards</t>
+  </si>
+  <si>
+    <t>B2B payment solutions</t>
+  </si>
+  <si>
+    <t>online payment processing for Internet merchants</t>
+  </si>
+  <si>
+    <t>payment acceptance and processing</t>
+  </si>
+  <si>
+    <t>B2B payment optimization solutions</t>
+  </si>
+  <si>
+    <t>white level debit card programs</t>
+  </si>
+  <si>
+    <t>providing mobile payment application</t>
+  </si>
+  <si>
+    <t>providing flexible payments solutions</t>
+  </si>
+  <si>
+    <t>payment and cross-border solutions</t>
+  </si>
+  <si>
+    <t>card processing for small businesses</t>
+  </si>
+  <si>
+    <t>card payment and merchant solutions</t>
+  </si>
+  <si>
+    <t>digital payment solutions</t>
+  </si>
+  <si>
+    <t>digital finance and payment solutions for businesses</t>
+  </si>
+  <si>
+    <t>business payment solutions</t>
+  </si>
+  <si>
+    <t>innovative payment solutions</t>
+  </si>
+  <si>
+    <t>payment platform for e-money and payments</t>
+  </si>
+  <si>
+    <t>providing payment cards solutions</t>
+  </si>
+  <si>
+    <t>foreign exchange solutions</t>
+  </si>
+  <si>
+    <t>building FinTech solutions</t>
+  </si>
+  <si>
+    <t>partner sponsorship payment solutions</t>
+  </si>
+  <si>
+    <t>global payment services</t>
+  </si>
+  <si>
+    <t>providing payment infrastructure</t>
+  </si>
+  <si>
+    <t>providing multi-currency accounts</t>
+  </si>
+  <si>
+    <t>financial technology solutions</t>
+  </si>
+  <si>
+    <t>online business accounts and payment processing</t>
+  </si>
+  <si>
+    <t>payment platform for secure and cheap payments</t>
+  </si>
+  <si>
+    <t>enabling innovative payments</t>
+  </si>
+  <si>
+    <t>UK banking infrastructure platform</t>
+  </si>
+  <si>
+    <t>global banking and payments platform</t>
+  </si>
+  <si>
+    <t>e-wallet and e-payment solutions</t>
+  </si>
+  <si>
+    <t>providing payment gateway</t>
+  </si>
+  <si>
+    <t>digital transaction platform</t>
+  </si>
+  <si>
+    <t>e-wallets and payment cards for families</t>
+  </si>
+  <si>
+    <t>payment solution for disruptive businesses</t>
+  </si>
+  <si>
+    <t>international payments for businesses</t>
+  </si>
+  <si>
+    <t>mobile application for financial accounts aggregation</t>
+  </si>
+  <si>
+    <t>simple and secure money transfers</t>
+  </si>
+  <si>
+    <t>mobile money transfers</t>
+  </si>
+  <si>
+    <t>cross-border cloud payments</t>
+  </si>
+  <si>
+    <t>buying and saving in gold via e-wallet account</t>
+  </si>
+  <si>
+    <t>providing payment cards and current accounts</t>
+  </si>
+  <si>
+    <t>providing e-money accounts and payment cards</t>
+  </si>
+  <si>
+    <t>payment processing systems</t>
+  </si>
+  <si>
+    <t>online payments throughout the UK and Europe</t>
+  </si>
+  <si>
+    <t>infrastructure components for payment processing</t>
+  </si>
+  <si>
+    <t>issuing travel cards</t>
+  </si>
+  <si>
+    <t>providing open finance platform</t>
+  </si>
+  <si>
+    <t>delivering technology innovation</t>
+  </si>
+  <si>
+    <t>B2B foreign exchange payments</t>
+  </si>
+  <si>
+    <t>foreign exchange and remittances</t>
+  </si>
+  <si>
+    <t>digital payments</t>
+  </si>
+  <si>
+    <t>international bank payments</t>
+  </si>
+  <si>
+    <t>online payment processing</t>
+  </si>
+  <si>
+    <t>providing a global settlement system</t>
+  </si>
+  <si>
+    <t>payment solutions for Chinese payment market</t>
+  </si>
+  <si>
+    <t>payment solutions</t>
+  </si>
+  <si>
+    <t>international card processing</t>
+  </si>
+  <si>
+    <t>creating innovative financial technology solutions</t>
+  </si>
+  <si>
+    <t>payment services for YouPass customers</t>
+  </si>
+  <si>
+    <t>alternative banking and crypto trading</t>
+  </si>
+  <si>
+    <t>end-to-end banking and payments solutions</t>
+  </si>
+  <si>
+    <t>online payments for affiliate marketing industry</t>
+  </si>
+  <si>
+    <t>providing crypro exchange platform</t>
+  </si>
+  <si>
+    <t> (4.6)</t>
+  </si>
+  <si>
+    <t> (1.6)</t>
+  </si>
+  <si>
+    <t> (3.6)</t>
+  </si>
+  <si>
+    <t> (4.0)</t>
+  </si>
+  <si>
+    <t> (4.3)</t>
+  </si>
+  <si>
+    <t> (4.8)</t>
+  </si>
+  <si>
+    <t> (4.1)</t>
+  </si>
+  <si>
+    <t> (2.3)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t> (2.5)</t>
+  </si>
+  <si>
+    <t> (4.9)</t>
+  </si>
+  <si>
+    <t> (4.4)</t>
+  </si>
+  <si>
+    <t> (4.2)</t>
+  </si>
+  <si>
+    <t> (4.7)</t>
+  </si>
+  <si>
+    <t> (3.7)</t>
+  </si>
+  <si>
+    <t> (3.4)</t>
+  </si>
+  <si>
+    <t> (1.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+View Profile
+</t>
+  </si>
+  <si>
+    <t> (1.7)</t>
+  </si>
+  <si>
+    <t> (3.8)</t>
+  </si>
+  <si>
+    <t> (3.5)</t>
+  </si>
+  <si>
+    <t> (2.9)</t>
+  </si>
+  <si>
+    <t> (4.5)</t>
+  </si>
+  <si>
+    <t> (1.5)</t>
+  </si>
+  <si>
+    <t> (3.2)</t>
+  </si>
+  <si>
+    <t> (3.0)</t>
+  </si>
+  <si>
+    <t> (2.8)</t>
+  </si>
+  <si>
+    <t> (2.7)</t>
+  </si>
+  <si>
+    <t> (1.4)</t>
+  </si>
+  <si>
+    <t> (2.2)</t>
+  </si>
+  <si>
+    <t> (3.9)</t>
+  </si>
+  <si>
+    <t> (3.1)</t>
+  </si>
+  <si>
+    <t> (1.9)</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -42,101 +1379,7 @@
     <t>Business Focus</t>
   </si>
   <si>
-    <t>Customers Rating</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Company Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ABC INTERNATIONAL BANK PLC</t>
-  </si>
-  <si>
-    <t>corporate banking</t>
-  </si>
-  <si>
-    <t>3027.69 mln GBP</t>
-  </si>
-  <si>
-    <t>1-5 MOORGATE, EC2R 6AB, London, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                    Active
-                </t>
-  </si>
-  <si>
-    <t>ABN AMRO Bank NV</t>
-  </si>
-  <si>
-    <t>corporate and investment banking</t>
-  </si>
-  <si>
-    <t>BR014612</t>
-  </si>
-  <si>
-    <t>5 Aldemanbury Square, EC2V 7HR, London, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  Open
-              </t>
-  </si>
-  <si>
-    <t>Agricultural Bank of China Limited London Branch</t>
-  </si>
-  <si>
-    <t>BR019951</t>
-  </si>
-  <si>
-    <t>7/F 1 Bartholomew Lane, EX2N 2AX, London, EX2N 2AX, London, United Kingdom</t>
-  </si>
-  <si>
-    <t>AIB Group (UK) Plc</t>
-  </si>
-  <si>
-    <t>business banking</t>
-  </si>
-  <si>
-    <t>11652.00 mln GBP</t>
-  </si>
-  <si>
-    <t>NI018800</t>
-  </si>
-  <si>
-    <t>St Helens, 1 Undershaft, UB8 1SA, London, United Kingdom</t>
-  </si>
-  <si>
-    <t>Al Rayan Bank Plc</t>
-  </si>
-  <si>
-    <t>Sharia retail banking</t>
-  </si>
-  <si>
-    <t>2247.30 mln GBP</t>
-  </si>
-  <si>
-    <t>Edgbaston House, 3 Duchess Place, B16 8NH, Birmingham, United Kingdom</t>
-  </si>
-  <si>
-    <t>Aldermore Bank Plc</t>
-  </si>
-  <si>
-    <t>retail and corporate banking</t>
-  </si>
-  <si>
-    <t>12471.90 mln GBP</t>
-  </si>
-  <si>
-    <t>50 St Mary Axe, KT17 1BS, London, United Kingdom</t>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -490,171 +1733,3498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4011F83C-FB04-4C2F-A54D-A64D0B7AD099}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5A23B-F272-4F0E-987F-D98B9233BAF0}">
+  <dimension ref="A1:C691"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F2:F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>2564490</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>-3.5</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
-        <v>-3.5</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
-        <v>4483430</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
-        <v>947662</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C464" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C497" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C512" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C539" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C553" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C575" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C583" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C597" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C645" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C650" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C651" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C652" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C653" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C654" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C655" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C656" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C657" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C658" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C659" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C660" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C661" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C662" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C663" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C664" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C665" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C666" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C667" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C668" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C669" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C670" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C671" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C672" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C673" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C674" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C675" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C676" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C677" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C678" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C679" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C680" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C681" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C682" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C683" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C684" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C685" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C686" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C687" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C688" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C689" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C690" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C691" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{7F34711A-CF99-4389-B3D1-991A80C15F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6827B1F-5A69-4543-A256-2A5DF1ADF88F}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{7F34711A-CF99-4389-B3D1-991A80C15F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4396CD-7307-438F-882B-51A022242280}"/>
   <bookViews>
     <workbookView xWindow="-20892" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{079E6AB3-B708-4CFC-8DF6-7EEA61A08739}"/>
   </bookViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{7F34711A-CF99-4389-B3D1-991A80C15F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4396CD-7307-438F-882B-51A022242280}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{7F34711A-CF99-4389-B3D1-991A80C15F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91AD43A-8E63-4706-8241-250327BBF578}"/>
   <bookViews>
-    <workbookView xWindow="-20892" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{079E6AB3-B708-4CFC-8DF6-7EEA61A08739}"/>
+    <workbookView xWindow="-22104" yWindow="936" windowWidth="21600" windowHeight="11772" xr2:uid="{079E6AB3-B708-4CFC-8DF6-7EEA61A08739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="449">
   <si>
     <t>Name</t>
   </si>
@@ -1042,9 +1042,6 @@
   </si>
   <si>
     <t>software development for FinTech clients</t>
-  </si>
-  <si>
-    <t>providing payment accounts for businesses</t>
   </si>
   <si>
     <t>providing frameworks for FinTechs</t>
@@ -1380,6 +1377,12 @@
   </si>
   <si>
     <t> (1.9)</t>
+  </si>
+  <si>
+    <t>digital money management</t>
+  </si>
+  <si>
+    <t>easy-to-use online banking technology</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1756,7 @@
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,7 +1767,7 @@
         <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,7 +1778,7 @@
         <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,7 +1789,7 @@
         <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,7 +1800,7 @@
         <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,7 +1811,7 @@
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +1822,7 @@
         <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +1833,7 @@
         <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
         <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,7 +1855,7 @@
         <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +1866,7 @@
         <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
         <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,7 +1888,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,7 +1899,7 @@
         <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,7 +1910,7 @@
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,7 +1921,7 @@
         <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,7 +1932,7 @@
         <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,7 +1943,7 @@
         <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +1954,7 @@
         <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +1965,7 @@
         <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,7 +1976,7 @@
         <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,7 +1998,7 @@
         <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2009,7 @@
         <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2020,7 @@
         <v>251</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +2031,7 @@
         <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
         <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2053,7 @@
         <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2064,7 @@
         <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,7 +2075,7 @@
         <v>256</v>
       </c>
       <c r="C30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,7 +2086,7 @@
         <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2097,7 @@
         <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,7 +2108,7 @@
         <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +2119,7 @@
         <v>260</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,7 +2130,7 @@
         <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2141,7 @@
         <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2149,7 +2152,7 @@
         <v>263</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,7 +2163,7 @@
         <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,7 +2174,7 @@
         <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,7 +2185,7 @@
         <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,7 +2196,7 @@
         <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,7 +2207,7 @@
         <v>268</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
         <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2240,7 @@
         <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,7 +2251,7 @@
         <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
         <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,7 +2273,7 @@
         <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,7 +2284,7 @@
         <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,7 +2295,7 @@
         <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,7 +2306,7 @@
         <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2314,7 +2317,7 @@
         <v>263</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,7 +2328,7 @@
         <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,7 +2339,7 @@
         <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2350,7 @@
         <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +2361,7 @@
         <v>280</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2372,7 @@
         <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,7 +2383,7 @@
         <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,7 +2394,7 @@
         <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,7 +2405,7 @@
         <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,7 +2416,7 @@
         <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2427,7 @@
         <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,7 +2438,7 @@
         <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2460,7 @@
         <v>289</v>
       </c>
       <c r="C65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,7 +2471,7 @@
         <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,7 +2482,7 @@
         <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
         <v>239</v>
       </c>
       <c r="C68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,7 +2504,7 @@
         <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2515,7 @@
         <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +2526,7 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2537,7 @@
         <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2548,7 @@
         <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,7 +2559,7 @@
         <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,7 +2570,7 @@
         <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,7 +2581,7 @@
         <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2592,7 @@
         <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,7 +2603,7 @@
         <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2611,7 +2614,7 @@
         <v>263</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,7 +2625,7 @@
         <v>302</v>
       </c>
       <c r="C80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2636,7 @@
         <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,7 +2647,7 @@
         <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2658,7 @@
         <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
         <v>306</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,7 +2680,7 @@
         <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,7 +2691,7 @@
         <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,7 +2702,7 @@
         <v>307</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,7 +2713,7 @@
         <v>308</v>
       </c>
       <c r="C88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +2724,7 @@
         <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2732,7 +2735,7 @@
         <v>309</v>
       </c>
       <c r="C90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,7 +2746,7 @@
         <v>310</v>
       </c>
       <c r="C91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
         <v>311</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2765,7 +2768,7 @@
         <v>263</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
         <v>312</v>
       </c>
       <c r="C94" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2787,7 +2790,7 @@
         <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,7 +2801,7 @@
         <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +2812,7 @@
         <v>313</v>
       </c>
       <c r="C97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,7 +2823,7 @@
         <v>314</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,7 +2834,7 @@
         <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2845,7 @@
         <v>315</v>
       </c>
       <c r="C100" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,7 +2856,7 @@
         <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +2867,7 @@
         <v>316</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,7 +2878,7 @@
         <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +2889,7 @@
         <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,7 +2900,7 @@
         <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,7 +2911,7 @@
         <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,7 +2922,7 @@
         <v>319</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,7 +2933,7 @@
         <v>320</v>
       </c>
       <c r="C108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,7 +2944,7 @@
         <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2955,7 @@
         <v>274</v>
       </c>
       <c r="C110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +2977,7 @@
         <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +2988,7 @@
         <v>323</v>
       </c>
       <c r="C113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,18 +2999,18 @@
         <v>324</v>
       </c>
       <c r="C114" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,7 +3021,7 @@
         <v>325</v>
       </c>
       <c r="C116" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,7 +3032,7 @@
         <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,7 +3043,7 @@
         <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,7 +3054,7 @@
         <v>327</v>
       </c>
       <c r="C119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,7 +3065,7 @@
         <v>328</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,7 +3076,7 @@
         <v>329</v>
       </c>
       <c r="C121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3087,7 @@
         <v>330</v>
       </c>
       <c r="C122" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3095,7 +3098,7 @@
         <v>263</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,7 +3109,7 @@
         <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
         <v>234</v>
       </c>
       <c r="C125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,7 +3131,7 @@
         <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,7 +3142,7 @@
         <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3153,7 @@
         <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,7 +3164,7 @@
         <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3175,7 @@
         <v>334</v>
       </c>
       <c r="C130" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,7 +3186,7 @@
         <v>335</v>
       </c>
       <c r="C131" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3194,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3205,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3216,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C134" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3227,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C135" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3238,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C136" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3249,7 +3252,7 @@
         <v>263</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3260,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C138" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3271,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C139" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3282,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C140" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3293,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C141" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3304,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,10 +3315,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C143" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,7 +3329,7 @@
         <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3337,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,10 +3348,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3356,10 +3359,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,10 +3370,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C148" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,10 +3381,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3389,10 +3392,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3400,10 +3403,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3411,10 +3414,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C152" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3422,10 +3425,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3433,10 +3436,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3444,10 +3447,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C155" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3455,10 +3458,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3466,10 +3469,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,7 +3483,7 @@
         <v>270</v>
       </c>
       <c r="C158" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3488,10 +3491,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3499,10 +3502,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3510,10 +3513,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C161" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3521,10 +3524,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C162" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3532,10 +3535,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C163" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3549,7 @@
         <v>269</v>
       </c>
       <c r="C164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,10 +3557,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C165" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3571,7 @@
         <v>276</v>
       </c>
       <c r="C166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3576,10 +3579,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C167" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3593,7 @@
         <v>306</v>
       </c>
       <c r="C168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3598,10 +3601,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C169" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,10 +3612,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3626,7 @@
         <v>306</v>
       </c>
       <c r="C171" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3631,10 +3634,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C172" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3642,10 +3645,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C173" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,10 +3656,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C174" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3664,10 +3667,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C175" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,10 +3678,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3686,10 +3689,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C177" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3697,10 +3700,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C178" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3708,10 +3711,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C179" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3719,10 +3722,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3730,10 +3733,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3741,10 +3744,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C182" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3752,10 +3755,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C183" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3763,21 +3766,21 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C184" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,7 +3791,7 @@
         <v>276</v>
       </c>
       <c r="C186" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3796,10 +3799,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3807,10 +3810,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3818,10 +3821,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C189" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3829,10 +3832,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C190" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3840,439 +3843,439 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="C192" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C195" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="C196" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C198" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C199" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C200" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C203" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>395</v>
+      </c>
+      <c r="C204" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>397</v>
-      </c>
-      <c r="C204" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
+        <v>396</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>263</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>398</v>
-      </c>
-      <c r="C206" t="s">
-        <v>423</v>
+      <c r="C206" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="C207" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="C208" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="C209" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C210" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C214" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C216" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C217" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C218" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C219" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="C220" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C222" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="C223" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="C224" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>411</v>
+        <v>232</v>
       </c>
       <c r="C225" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C226" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="C227" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C228" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>243</v>
+      </c>
+      <c r="C229" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>413</v>
-      </c>
-      <c r="C229" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
       <c r="B230" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -4283,7 +4286,7 @@
         <v>263</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
